--- a/要件定義・詳細設計_Rev.1.0.xlsx
+++ b/要件定義・詳細設計_Rev.1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaMa2\Documents\資料と物置\HAL\3\その他\0_インターンシップ\10_16\要件定義・詳細設計_Rev.1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaMa2\source\Intern_CSE\DVD_Rental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538970C8-6F27-4851-A610-B40E49F5D6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE51DB-C756-477F-8278-10BC8602810F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面_設計処理" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">ログイン画面_設計処理!$A$1:$M$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'確認(レンタル)画面_設計処理　'!$A$1:$M$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'確認(返却)画面_設計処理'!$A$1:$M$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'返却管理画面_設計処理 '!$A$1:$M$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'返却管理画面_設計処理 '!$A$1:$M$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>YES</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +293,369 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトができること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員IDの入力欄が有ること。</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタル中の商品を表示するボタンを配置して、会員IDの入力欄に記述された会員のレンタル中の商品を表示ができること。</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された商品を返却するボタンを配置すること。但し、直ぐに返却せず確認画面に移行すること。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ商品を複数レンタル中の場合はその分行を追加すること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員IDに何も入力せずにレンタル中の商品を表示させようとした場合は何も表示しないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も選択せずに選択した商品を返却を押した場合は確認画面に進ませないこと。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面でエラーを吐いたら管理画面でエラーの文を表示すること。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー文は違う画面への遷移時に消去すること。</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>センイジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押す</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員IDの入力</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookieの中にuserIDが格納、Sessionのユーザー名にその人の管理者権限フラグが格納されているので、その二つを削除してloginページにリダイレクトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力可能な物を数値に絞る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタル中の商品を表示を押す</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員ID欄に入力された値から現在会員がレンタル中の商品を表示する。会員ID欄の入力がない場合は何も処理をしない。</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタル商品一覧のチェックボックスを選択</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した商品を返却</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した商品をセッション変数に入れて確認画面へ遷移する。選択した商品が無い場合は何も処理を行わない。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１つでもあれば表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにもしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１つでもあれば確認画面へ遷移</t>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3444,7 +3807,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="371475" cy="264560"/>
@@ -3502,140 +3865,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>82636</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115726</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>204320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514636</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>149079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="フローチャート: 判断 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2099695" y="1875050"/>
-          <a:ext cx="432000" cy="504000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154636</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>134845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442636</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>187521</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="円/楕円 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171695" y="6600639"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154636</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>51920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442636</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104596</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304090</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3650,8 +3889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171695" y="869949"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="3673690" y="980175"/>
+          <a:ext cx="288000" cy="274348"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3690,15 +3929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160210</xdr:rowOff>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>597273</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>74485</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3713,8 +3952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1344706" y="3096151"/>
-          <a:ext cx="1941979" cy="855569"/>
+          <a:off x="1399310" y="5258681"/>
+          <a:ext cx="4835235" cy="878882"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3737,6 +3976,129 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の中に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>userID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が格納</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Session</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のユーザー名にその人の管理者権限フラグが格納されているので</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>その二つを削除して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ページにリダイレクトする。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3750,147 +4112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85615</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159327</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>554410</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="フローチャート: 定義済み処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1387568" y="4668821"/>
-          <a:ext cx="1856254" cy="1214718"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>634252</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>143809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200584</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>191435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2651311" y="1432485"/>
-          <a:ext cx="2255744" cy="282950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298636</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104596</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298636</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115726</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160090</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>221671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3902,14 +4133,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="46" idx="4"/>
-          <a:endCxn id="44" idx="0"/>
+          <a:endCxn id="32" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2315695" y="1157949"/>
-          <a:ext cx="0" cy="717101"/>
+        <a:xfrm flipH="1">
+          <a:off x="3816927" y="1254523"/>
+          <a:ext cx="763" cy="1073039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3937,15 +4169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>169952</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>468224</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>56971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4000,15 +4232,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>535922</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>102254</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>81244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4070,16 +4302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>20452</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>17334</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>89724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>617725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169735</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>69777</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4094,8 +4326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12122805" y="3188599"/>
-          <a:ext cx="1941979" cy="858371"/>
+          <a:off x="20816124" y="3439407"/>
+          <a:ext cx="1808853" cy="817419"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4131,16 +4363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>103088</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182963</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>61525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>535088</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>216316</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>493525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4155,8 +4387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12877794" y="4530845"/>
-          <a:ext cx="432000" cy="504000"/>
+          <a:off x="21397525" y="4810381"/>
+          <a:ext cx="432000" cy="476698"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4192,16 +4424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>63314</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18380</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>44263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>207147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>574862</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56480</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4216,8 +4448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12165667" y="5307556"/>
-          <a:ext cx="1856254" cy="1214718"/>
+          <a:off x="20770663" y="5769747"/>
+          <a:ext cx="1730748" cy="1181101"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4253,15 +4485,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>103657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4320,15 +4552,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4391,15 +4623,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>36420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4468,15 +4700,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4541,15 +4773,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>182096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4612,15 +4844,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>340097</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>578782</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>103656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4679,15 +4911,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>309842</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>160626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>309842</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>171756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4705,6 +4937,2481 @@
         <a:xfrm>
           <a:off x="13084548" y="1449302"/>
           <a:ext cx="0" cy="717101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>221671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>235526</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567213B6-4798-4BA5-8F96-81A6B14966C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1302327" y="2327562"/>
+          <a:ext cx="5029199" cy="1413164"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン画面の設計処理の一番最初の処理と同じ事をここでも行うが書かないのでログインを参照してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>確認画面からエラーがあれば表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159327</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17701AE-D03D-4A25-925F-1962550E0338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816927" y="3740726"/>
+          <a:ext cx="1" cy="1517955"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>522296</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F864511-A618-4C8C-B072-12748F1EC69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4003964" y="4585854"/>
+          <a:ext cx="2004732" cy="269297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログアウトボタンを押す</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159327</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEE7690-C3B1-4504-8940-40104F9CF569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="124" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8789139" y="-1155287"/>
+          <a:ext cx="1585735" cy="11530159"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35584"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471055</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9266A8A4-FB1C-4505-8C57-29AA5C773B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005455" y="4655127"/>
+          <a:ext cx="2701636" cy="401782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レンタル中の商品を表示ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444990</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CF8070-0074-4A3D-973D-1D7EF5AB142B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816928" y="5924203"/>
+          <a:ext cx="5772062" cy="16650047"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47668</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="フローチャート: 判断 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A205E64B-D22C-4BAC-9365-139E562286BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362868" y="5212162"/>
+          <a:ext cx="2737096" cy="2158456"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テキストボックスにメンバー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入力されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>195390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>267119</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A271C1-A6F4-461E-93F9-43CBA09E4B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="3"/>
+          <a:endCxn id="110" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10099964" y="6291390"/>
+          <a:ext cx="1749555" cy="1799666"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>197016</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>197465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781B7D0A-A8AE-41DE-BA17-ABF57650A99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="107" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8731416" y="7370618"/>
+          <a:ext cx="449" cy="746239"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280307</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="274864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEE4124-CB80-4BBE-93DE-13A4379027E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8814707" y="7268936"/>
+          <a:ext cx="590550" cy="274864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438645</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28946</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="274864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A29A3B9-C0ED-4353-964F-646C6BE7D010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12021045" y="7233310"/>
+          <a:ext cx="590550" cy="274864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>no</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473110</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>531419</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE64DAD-0682-488E-AB9F-143C971BA836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7178710" y="8116857"/>
+          <a:ext cx="3106309" cy="1152822"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チェックボックスのクリア。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チェックボックスに会員のレンタル中の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品を挿入する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581892</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561945</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68129B94-7BD9-43A5-A7B4-5444FA59A46C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945092" y="8091056"/>
+          <a:ext cx="1808853" cy="817419"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何もしない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159326</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>197015</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF793F1-55E0-4945-82A8-B2726BA78575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="96" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5538453" y="2019199"/>
+          <a:ext cx="1471436" cy="4914489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="テキスト ボックス 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044842B9-2A06-4DBD-864C-225649BC3919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9019310" y="3422073"/>
+          <a:ext cx="2701636" cy="401782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択した商品を返却ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157021</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="フローチャート: 判断 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B27DC24-0660-4794-B91E-1105F63AFCE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14177821" y="5402661"/>
+          <a:ext cx="2338530" cy="2045889"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員が未返却の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DVD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>保有しているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102754</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107086</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>153900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C300389-C7EF-4E78-8911-2F318F44EE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15342754" y="7448550"/>
+          <a:ext cx="4332" cy="1468350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>224888</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193223</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="274864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73D87FD-4AD4-49AA-9BF4-E179CF7B47BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15464888" y="7619259"/>
+          <a:ext cx="590550" cy="274864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>267119</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>213016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D9F719-1B6A-4836-97A2-5E35F1BB5C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="3"/>
+          <a:endCxn id="153" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516351" y="6425606"/>
+          <a:ext cx="2038768" cy="2779010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>99208</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="440624"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF14D752-3D24-40BF-B358-09548D6812AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18996808" y="7770668"/>
+          <a:ext cx="590550" cy="440624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>no</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>499674</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>150058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>271897</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="フローチャート: 判断 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFB9310-C93C-4E15-998E-664289383A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13910874" y="11427658"/>
+          <a:ext cx="2820223" cy="1798238"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>つ以上選択された</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DVD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>があるか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>377288</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>26968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="274864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B7BEF1-CF13-4CE0-A417-A4FF80F803D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15617288" y="10556423"/>
+          <a:ext cx="590550" cy="274864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80986</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>94755</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>221181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA5D389-9C17-41E1-A1FB-83AB00B087FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="2"/>
+          <a:endCxn id="159" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15320986" y="13225896"/>
+          <a:ext cx="13769" cy="2616285"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>271897</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>134777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>125110</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>128157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3888B72-A71B-4AAE-8CD8-AB1C5C710112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="3"/>
+          <a:endCxn id="156" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16731097" y="12326777"/>
+          <a:ext cx="1682013" cy="1593580"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>187531</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>202128</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="274864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="テキスト ボックス 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F85474D-5F43-4E34-B710-A6ED8BDBA8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18475531" y="13079928"/>
+          <a:ext cx="590550" cy="274864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>no</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581892</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>213016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>561945</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101B3F3E-B46F-4142-9123-D57D72DBC3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17650692" y="9204616"/>
+          <a:ext cx="1808853" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何もしない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>439883</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>128157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>419936</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B233409-23A6-4BC5-9BD4-AF1E9352F984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17508683" y="13920357"/>
+          <a:ext cx="1808853" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何もしない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>202128</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>221181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>596982</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>199703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABADEEC-3C86-4579-83B8-6C660C2041D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12394128" y="15842181"/>
+          <a:ext cx="5881254" cy="3407522"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラー表示ラベルのクリア。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラー表示用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Session</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の削除。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>dvd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の現在の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Update_Date_Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RentalDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>StockDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>からそれぞれ取り出し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Session</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>に保管。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メンバー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と選択された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DVDID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と選択された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DVD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RentalDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>をセッションに保管。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>返却確認画面へリダイレクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>521688</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>153900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>293419</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE7802D-27B5-4062-9B9F-45F45432470F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13932888" y="8916900"/>
+          <a:ext cx="2819731" cy="643727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>未返却の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DVDID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Session</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>から取り出し。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DVD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と名前を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取り出し。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80986</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102754</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>150058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8A673C-15CF-4B0F-BFF2-AD2107F7A092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="140" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15320986" y="9560627"/>
+          <a:ext cx="21768" cy="1867031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>588990</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>102206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="円/楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76EA142-FF37-4583-B7ED-A6B87DCBB7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9444990" y="22574250"/>
+          <a:ext cx="288000" cy="266036"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444990</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>199703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>94755</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE969DCA-CD58-4FA9-BA88-12B6681BBE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9588990" y="19249703"/>
+          <a:ext cx="5745765" cy="4879027"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7984,7 +10691,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:M13"/>
     </sheetView>
   </sheetViews>
@@ -9080,10 +11787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:M17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -9091,7 +11798,7 @@
     <col min="1" max="16384" width="9.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21.6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9100,27 +11807,29 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="21.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -9134,8 +11843,10 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -9149,8 +11860,10 @@
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
@@ -9164,392 +11877,502 @@
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" ht="21.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" ht="21.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="3" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="4" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="3" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="4" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" ht="21.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:16" ht="21.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="43" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="41" t="s">
+      <c r="K27" s="43"/>
+      <c r="L27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="M27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A13:M13"/>
+  <mergeCells count="62">
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A15:M15"/>
     <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
     <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:I29"/>
@@ -9560,6 +12383,36 @@
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9573,47 +12426,67 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:AX41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:50" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="F5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="F6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9621,55 +12494,91 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+    </row>
+    <row r="9" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+    </row>
+    <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="F15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
